--- a/rac/bangluudulieu_tamthoi.xlsx
+++ b/rac/bangluudulieu_tamthoi.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -425,10 +425,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43H02193</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -501,17 +501,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C11214_C</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C11214_C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43C10911_C</t>
+          <t>43C11214_C</t>
         </is>
       </c>
     </row>
@@ -523,12 +523,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>08:10:52 04/05/2024</t>
+          <t>09:31:56 13/05/2024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:10:32 04/05/2024</t>
+          <t>09:31:16 13/05/2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>09:31</t>
         </is>
       </c>
     </row>
@@ -539,16 +544,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>46   km/h</t>
+          <t>8   km/h</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Xe sắp đến hạn thu phí</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -559,11 +564,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>25   km/h</t>
+          <t>7   km/h</t>
         </is>
       </c>
     </row>
@@ -574,11 +579,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.503</v>
+        <v>16.6211</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>148.50  km</t>
+          <t>15.66  km</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.62</t>
         </is>
       </c>
     </row>
@@ -589,11 +599,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4 lần</t>
+          <t>6 lần</t>
         </is>
       </c>
     </row>
@@ -617,7 +627,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tắt</t>
+          <t>Bật</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Bật</t>
         </is>
       </c>
     </row>
@@ -629,12 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
+          <t>Nguyễn Lương Bằng, P. Hòa Hiệp Nam, Q. Liên Chiểu, TP. Đà Nẵng</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lê Duẩn, X. Triệu Giang, H. Triệu Phong, Quảng Trị</t>
+          <t>Nguyễn Tất Thành, P. Hòa Hiệp Nam, Q. Liên Chiểu, TP. Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Nguyễn Tất Thành, P. Hòa Hiệp Nam, Q. Liên Chiểu, TP. Đà Nẵng</t>
         </is>
       </c>
     </row>
@@ -644,6 +664,11 @@
           <t>Thời gian dừng đỗ</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -652,11 +677,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>321</v>
+        <v>151</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  321L</t>
+          <t xml:space="preserve">  152L</t>
         </is>
       </c>
     </row>
@@ -666,6 +691,11 @@
           <t>nhiệt độ</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-999</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -675,12 +705,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0905546611</t>
+          <t>0706083832</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0905546611</t>
+          <t>0706083832</t>
         </is>
       </c>
     </row>
@@ -692,12 +722,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN TAM</t>
+          <t>NGUYEN VAN HAI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NGUYEN VAN TAM</t>
+          <t>NGUYEN VAN HAI</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NGUYEN VAN HAI</t>
         </is>
       </c>
     </row>
@@ -709,12 +744,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>480122493687</t>
+          <t>460166670286</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>480122493687</t>
+          <t>460166670286</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>460166670286</t>
         </is>
       </c>
     </row>
@@ -725,11 +765,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6 phút</t>
+          <t>36 phút</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -740,11 +785,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>180 phút</t>
+          <t>37 phút</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -812,12 +862,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Xe của Quý khách hết hạn phí dịch vụ vào ngày 01/05/2024.</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Xe của Quý khách hết hạn phí dịch vụ vào ngày 01/05/2024.</t>
+          <t>Xe đến hạn thu phí dịch vụ ngày: 01/05/2025</t>
         </is>
       </c>
     </row>
@@ -829,7 +879,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SCVINAQCB010</t>
+          <t>SCVTQC030</t>
         </is>
       </c>
     </row>
@@ -841,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vina</t>
+          <t>Viettel</t>
         </is>
       </c>
     </row>
@@ -853,7 +903,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10240 (MB)</t>
+          <t>30720 (MB)</t>
         </is>
       </c>
     </row>
@@ -887,6 +937,9 @@
           <t>tính năng định vị</t>
         </is>
       </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>Có</t>
@@ -899,6 +952,9 @@
           <t>tính năng ảnh</t>
         </is>
       </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>Có</t>
@@ -911,6 +967,9 @@
           <t>tính năng video</t>
         </is>
       </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Có</t>
@@ -976,7 +1035,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -987,7 +1046,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_viconshipdanang1_2024_04_23_14_47_03.xlsx</t>
+          <t>https://gps.binhanh.vn/publicData/Report/SystemVehicleStatus/hien_trang_he_thong_viconshipdanang1_2024_05_13_14_49_57.xlsx</t>
         </is>
       </c>
     </row>
@@ -1000,6 +1059,18 @@
       <c r="B46" t="inlineStr">
         <is>
           <t>12B12822_C</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Thời gian bắt đầu chạy tool</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>09:16:36</t>
         </is>
       </c>
     </row>
